--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#rdname.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#rdname.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="367">
   <si>
     <t>ID</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E142" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:E142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E143" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:E143"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -1511,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,1918 +1547,1923 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>362</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>87</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>317</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>39</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>338</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D132" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>140</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
